--- a/Script/Dataframes/df_Pagos.xlsx
+++ b/Script/Dataframes/df_Pagos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:N183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,6 +496,11 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Numero de Concepto</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Path</t>
         </is>
       </c>
@@ -563,6 +568,11 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO COMP ISR RET SALARIOS SEBASTIAN DUARTE ENERO 2023.pdf</t>
         </is>
       </c>
@@ -630,6 +640,11 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR INTEREXPORTA ENERO 2023.pdf</t>
         </is>
       </c>
@@ -697,6 +712,11 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR INTEREXPORTA FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -764,6 +784,11 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR INTEREXPORTA FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -831,6 +856,11 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA BRICKS ENERO 2023.pdf</t>
         </is>
       </c>
@@ -898,6 +928,11 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA BRICKS ENERO 2023.pdf</t>
         </is>
       </c>
@@ -965,6 +1000,11 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA BRICKS ENERO 2023.pdf</t>
         </is>
       </c>
@@ -1032,6 +1072,11 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA BRICKS FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -1099,6 +1144,11 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA BRICKS FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -1166,6 +1216,11 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA BRICKS FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -1233,6 +1288,11 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED ENERO 2023.pdf</t>
         </is>
       </c>
@@ -1300,6 +1360,11 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED ENERO 2023.pdf</t>
         </is>
       </c>
@@ -1367,6 +1432,11 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED ENERO 2023.pdf</t>
         </is>
       </c>
@@ -1434,6 +1504,11 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED ENERO 2023.pdf</t>
         </is>
       </c>
@@ -1501,6 +1576,11 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -1568,6 +1648,11 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -1635,6 +1720,11 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -1702,6 +1792,11 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -1769,6 +1864,11 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED MARZO 2023.pdf</t>
         </is>
       </c>
@@ -1836,6 +1936,11 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED MARZO 2023.pdf</t>
         </is>
       </c>
@@ -1903,6 +2008,11 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED MARZO 2023.pdf</t>
         </is>
       </c>
@@ -1970,6 +2080,11 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED MARZO 2023.pdf</t>
         </is>
       </c>
@@ -2037,6 +2152,11 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
       </c>
@@ -2104,6 +2224,11 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
       </c>
@@ -2171,6 +2296,11 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
       </c>
@@ -2238,6 +2368,11 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -2305,6 +2440,11 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -2372,6 +2512,11 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -2439,6 +2584,11 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF ENERO 2023.pdf</t>
         </is>
       </c>
@@ -2506,6 +2656,11 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF ENERO 2023.pdf</t>
         </is>
       </c>
@@ -2573,6 +2728,11 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF ENERO 2023.pdf</t>
         </is>
       </c>
@@ -2640,6 +2800,11 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF ENERO 2023.pdf</t>
         </is>
       </c>
@@ -2707,6 +2872,11 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -2774,6 +2944,11 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -2841,6 +3016,11 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -2908,6 +3088,11 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -2975,6 +3160,11 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF MARZO 2023 .pdf</t>
         </is>
       </c>
@@ -3042,6 +3232,11 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF MARZO 2023 .pdf</t>
         </is>
       </c>
@@ -3109,6 +3304,11 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF MARZO 2023 .pdf</t>
         </is>
       </c>
@@ -3176,6 +3376,11 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF MARZO 2023 .pdf</t>
         </is>
       </c>
@@ -3243,6 +3448,11 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA FAST LINK ENERO 2023.pdf</t>
         </is>
       </c>
@@ -3310,6 +3520,11 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA FAST LINK ENERO 2023.pdf</t>
         </is>
       </c>
@@ -3377,6 +3592,11 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA FAST LINK ENERO 2023.pdf</t>
         </is>
       </c>
@@ -3444,6 +3664,11 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA FAST LINK FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -3511,6 +3736,11 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA FAST LINK FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -3578,6 +3808,11 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA FAST LINK FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -3645,6 +3880,11 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO ENERO 2023.pdf</t>
         </is>
       </c>
@@ -3712,6 +3952,11 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO ENERO 2023.pdf</t>
         </is>
       </c>
@@ -3779,6 +4024,11 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO ENERO 2023.pdf</t>
         </is>
       </c>
@@ -3846,6 +4096,11 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO ENERO 2023.pdf</t>
         </is>
       </c>
@@ -3913,6 +4168,11 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -3980,6 +4240,11 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -4047,6 +4312,11 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -4114,6 +4384,11 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -4181,6 +4456,11 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO MARZO 2023.pdf</t>
         </is>
       </c>
@@ -4248,6 +4528,11 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO MARZO 2023.pdf</t>
         </is>
       </c>
@@ -4315,6 +4600,11 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO MARZO 2023.pdf</t>
         </is>
       </c>
@@ -4382,6 +4672,11 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO MARZO 2023.pdf</t>
         </is>
       </c>
@@ -4449,6 +4744,11 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MATRAZ ENERO 2023.pdf</t>
         </is>
       </c>
@@ -4516,6 +4816,11 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MATRAZ ENERO 2023.pdf</t>
         </is>
       </c>
@@ -4583,6 +4888,11 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MATRAZ ENERO 2023.pdf</t>
         </is>
       </c>
@@ -4650,6 +4960,11 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MATRAZ FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -4717,6 +5032,11 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MATRAZ FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -4784,6 +5104,11 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MATRAZ FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -4851,6 +5176,11 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P ENERO 2023.pdf</t>
         </is>
       </c>
@@ -4918,6 +5248,11 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P ENERO 2023.pdf</t>
         </is>
       </c>
@@ -4985,6 +5320,11 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P ENERO 2023.pdf</t>
         </is>
       </c>
@@ -5052,6 +5392,11 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P ENERO 2023.pdf</t>
         </is>
       </c>
@@ -5119,6 +5464,11 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -5186,6 +5536,11 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -5253,6 +5608,11 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -5320,6 +5680,11 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -5387,6 +5752,11 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P MARZO 2023.pdf</t>
         </is>
       </c>
@@ -5454,6 +5824,11 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P MARZO 2023.pdf</t>
         </is>
       </c>
@@ -5521,6 +5896,11 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P MARZO 2023.pdf</t>
         </is>
       </c>
@@ -5588,6 +5968,11 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P MARZO 2023.pdf</t>
         </is>
       </c>
@@ -5655,6 +6040,11 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA OPERADORA COMERCIAL INTEGRAL ENERO 2023.pdf</t>
         </is>
       </c>
@@ -5722,6 +6112,11 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA OPERADORA COMERCIAL INTEGRAL ENERO 2023.pdf</t>
         </is>
       </c>
@@ -5789,6 +6184,11 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA OPERADORA COMERCIAL INTEGRAL ENERO 2023.pdf</t>
         </is>
       </c>
@@ -5856,6 +6256,11 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA OPERADORA COMERCIAL INTEGRAL FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -5923,6 +6328,11 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA OPERADORA COMERCIAL INTEGRAL FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -5990,6 +6400,11 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA OPERADORA COMERCIAL INTEGRAL FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -6057,6 +6472,11 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA OPERADORA COMERCIAL INTEGRAL MARZO 2023.pdf</t>
         </is>
       </c>
@@ -6124,6 +6544,11 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA OPERADORA COMERCIAL INTEGRAL MARZO 2023.pdf</t>
         </is>
       </c>
@@ -6191,6 +6616,11 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA OPERADORA COMERCIAL INTEGRAL MARZO 2023.pdf</t>
         </is>
       </c>
@@ -6258,6 +6688,11 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA ENERO 2023.pdf</t>
         </is>
       </c>
@@ -6325,6 +6760,11 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA ENERO 2023.pdf</t>
         </is>
       </c>
@@ -6392,6 +6832,11 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA ENERO 2023.pdf</t>
         </is>
       </c>
@@ -6459,6 +6904,11 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA ENERO 2023.pdf</t>
         </is>
       </c>
@@ -6526,6 +6976,11 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -6593,6 +7048,11 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -6660,6 +7120,11 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -6727,6 +7192,11 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA MARZO 2023.pdf</t>
         </is>
       </c>
@@ -6794,6 +7264,11 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA MARZO 2023.pdf</t>
         </is>
       </c>
@@ -6861,6 +7336,11 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA MARZO 2023.pdf</t>
         </is>
       </c>
@@ -6928,6 +7408,11 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA MARZO 2023.pdf</t>
         </is>
       </c>
@@ -6995,6 +7480,11 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
       </c>
@@ -7062,6 +7552,11 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
       </c>
@@ -7129,6 +7624,11 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
       </c>
@@ -7196,6 +7696,11 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
       </c>
@@ -7263,6 +7768,11 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
       </c>
@@ -7330,6 +7840,11 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -7397,6 +7912,11 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -7464,6 +7984,11 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -7531,6 +8056,11 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -7598,6 +8128,11 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -7665,6 +8200,11 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER MARZO.pdf</t>
         </is>
       </c>
@@ -7732,6 +8272,11 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER MARZO.pdf</t>
         </is>
       </c>
@@ -7799,6 +8344,11 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER MARZO.pdf</t>
         </is>
       </c>
@@ -7866,6 +8416,11 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER MARZO.pdf</t>
         </is>
       </c>
@@ -7933,6 +8488,11 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER MARZO.pdf</t>
         </is>
       </c>
@@ -8000,6 +8560,11 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR PM SEFRAPESTS ENERO 2023.pdf</t>
         </is>
       </c>
@@ -8067,6 +8632,11 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR PM SEFRAPESTS ENERO 2023.pdf</t>
         </is>
       </c>
@@ -8134,6 +8704,11 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR PM SEFRAPESTS FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -8201,6 +8776,11 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR PM SEFRAPESTS FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -8268,6 +8848,11 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR PM SEFRAPESTS FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -8335,6 +8920,11 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR PM SEFRAPESTS MARZO 2023.pdf</t>
         </is>
       </c>
@@ -8402,6 +8992,11 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR PM SEFRAPESTS MARZO 2023.pdf</t>
         </is>
       </c>
@@ -8469,6 +9064,11 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR PM SEFRAPESTS MARZO 2023.pdf</t>
         </is>
       </c>
@@ -8536,6 +9136,11 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET AGROL ENERO 2023.pdf</t>
         </is>
       </c>
@@ -8603,6 +9208,11 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET AGROL FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -8670,6 +9280,11 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CARLOS HERMOSILLO ENERO 2023.pdf</t>
         </is>
       </c>
@@ -8737,6 +9352,11 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CARLOS HERMOSILLO FEBERERO 2023.pdf</t>
         </is>
       </c>
@@ -8804,6 +9424,11 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CARLOS HERMOSILLO MARZO 2023.pdf</t>
         </is>
       </c>
@@ -8871,6 +9496,11 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CONMED ENERO 2023.pdf</t>
         </is>
       </c>
@@ -8938,6 +9568,11 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CONMED ENERO 2023.pdf</t>
         </is>
       </c>
@@ -9005,6 +9640,11 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CONMED ENERO 2023.pdf</t>
         </is>
       </c>
@@ -9072,6 +9712,11 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CONMED FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -9139,6 +9784,11 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CONMED FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -9206,6 +9856,11 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CONMED MARZO 2023.pdf</t>
         </is>
       </c>
@@ -9273,6 +9928,11 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CONMED MARZO 2023.pdf</t>
         </is>
       </c>
@@ -9340,6 +10000,11 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET DE SUELDOS RIGOBERTO MORA ENERO 2023.pdf</t>
         </is>
       </c>
@@ -9407,6 +10072,11 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET DSF ENERO 2023.pdf</t>
         </is>
       </c>
@@ -9474,6 +10144,11 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET DSF FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -9541,6 +10216,11 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET DSF MARZO2023.pdf</t>
         </is>
       </c>
@@ -9608,6 +10288,11 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA BRICKS ENERO 2023.pdf</t>
         </is>
       </c>
@@ -9675,6 +10360,11 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA BRICKS FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -9742,6 +10432,11 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA BRICKS FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -9809,6 +10504,11 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
       </c>
@@ -9876,6 +10576,11 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
       </c>
@@ -9943,6 +10648,11 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
       </c>
@@ -10010,6 +10720,11 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -10077,6 +10792,11 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -10144,6 +10864,11 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -10211,6 +10936,11 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA OPERADORA COMERCIAL INTEGRAL FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -10278,6 +11008,11 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA OPERADORA COMERCIAL INTEGRAL FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -10345,6 +11080,11 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA OPERADORA COMERCIAL INTEGRAL MARZO 2023.pdf</t>
         </is>
       </c>
@@ -10412,6 +11152,11 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA OPERADORA COMERCIAL INTEGRAL MARZO 2023.pdf</t>
         </is>
       </c>
@@ -10479,6 +11224,11 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET MARISELA ENERO 2023.pdf</t>
         </is>
       </c>
@@ -10546,6 +11296,11 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET MARISELA LARES FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -10613,6 +11368,11 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET O AND P ENERO 2023.pdf</t>
         </is>
       </c>
@@ -10680,6 +11440,11 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET O AND P ENERO 2023.pdf</t>
         </is>
       </c>
@@ -10747,6 +11512,11 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET O AND P FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -10814,6 +11584,11 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET O AND P FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -10881,6 +11656,11 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET O AND P FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -10948,6 +11728,11 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET O AND P MARZO 2023.pdf</t>
         </is>
       </c>
@@ -11015,6 +11800,11 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET O AND P MARZO 2023.pdf</t>
         </is>
       </c>
@@ -11082,6 +11872,11 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET OPERADORA COMERCIAL INTEGRAL ENERO 2023.pdf</t>
         </is>
       </c>
@@ -11149,6 +11944,11 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET QUIMICA BENGALA ENERO 2023.pdf</t>
         </is>
       </c>
@@ -11216,6 +12016,11 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET QUIMICA BENGALA FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -11283,6 +12088,11 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET QUIMICA BENGALA FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -11350,6 +12160,11 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET QUIMICA BENGALA MARZO 2023.pdf</t>
         </is>
       </c>
@@ -11417,6 +12232,11 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET QUIMICA BENGALA MARZO 2023.pdf</t>
         </is>
       </c>
@@ -11484,6 +12304,11 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SALARIOS SEBASTIAN DUARTE FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -11551,6 +12376,11 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SEFRAPESTS ENERO 2023.pdf</t>
         </is>
       </c>
@@ -11618,6 +12448,11 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SEFRAPESTS FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -11685,6 +12520,11 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SEFRAPESTS FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -11752,6 +12592,11 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SEFRAPESTS MARZO 2023.pdf</t>
         </is>
       </c>
@@ -11819,6 +12664,11 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SUELDOS AGROL ENERO 2023.pdf</t>
         </is>
       </c>
@@ -11886,6 +12736,11 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SUELDOS AGROL FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -11953,6 +12808,11 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SUELDOS AGROL FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -12020,6 +12880,11 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SUELDOS BRICKS MARZO 2023.pdf</t>
         </is>
       </c>
@@ -12087,6 +12952,11 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SUELDOS BRICKS MARZO 2023.pdf</t>
         </is>
       </c>
@@ -12154,6 +13024,11 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET ZAMSER FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -12221,6 +13096,11 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET ZAMSER MARZO 2023.pdf</t>
         </is>
       </c>
@@ -12288,6 +13168,11 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RIGOBERTO MORA ENERO 2023.pdf</t>
         </is>
       </c>
@@ -12355,6 +13240,11 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR ULISES DE DIOS ENERO 2023.pdf</t>
         </is>
       </c>
@@ -12422,6 +13312,11 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR ULISES DE DIOS FEBERERO 2023.pdf</t>
         </is>
       </c>
@@ -12489,6 +13384,11 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR ULISES DE DIOS MARZO 2023.pdf</t>
         </is>
       </c>
@@ -12556,6 +13456,11 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO IVA CARLOS HERMOSILLO ENERO 2023.pdf</t>
         </is>
       </c>
@@ -12623,6 +13528,11 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO IVA CARLOS HERMOSILLO FEBRERO 2023.pdf</t>
         </is>
       </c>
@@ -12689,6 +13599,11 @@
         </is>
       </c>
       <c r="M183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO IVA CARLOS HERMOSILLO MARZO 2023.pdf</t>
         </is>

--- a/Script/Dataframes/df_Pagos.xlsx
+++ b/Script/Dataframes/df_Pagos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:O183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Tipo de declaracion</t>
+          <t>Tipo de Declaracion</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -496,10 +496,15 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Pago por Concepto</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Numero de Concepto</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Path</t>
         </is>
@@ -568,10 +573,15 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>5,767</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO COMP ISR RET SALARIOS SEBASTIAN DUARTE ENERO 2023.pdf</t>
         </is>
@@ -640,10 +650,15 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>1,791</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -712,10 +727,15 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>1,137</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR INTEREXPORTA FEBRERO 2023.pdf</t>
         </is>
@@ -784,10 +804,15 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR INTEREXPORTA FEBRERO 2023.pdf</t>
         </is>
@@ -856,10 +881,15 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>90,184</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA BRICKS ENERO 2023.pdf</t>
         </is>
@@ -928,10 +958,15 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>13,992</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA BRICKS ENERO 2023.pdf</t>
         </is>
@@ -1000,10 +1035,15 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>1,326</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA BRICKS ENERO 2023.pdf</t>
         </is>
@@ -1072,10 +1112,15 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>83,867</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA BRICKS FEBRERO 2023.pdf</t>
         </is>
@@ -1144,10 +1189,15 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>15,552</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA BRICKS FEBRERO 2023.pdf</t>
         </is>
@@ -1216,10 +1266,15 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
+          <t>2,728</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA BRICKS FEBRERO 2023.pdf</t>
         </is>
@@ -1288,10 +1343,15 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>18,937</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED ENERO 2023.pdf</t>
         </is>
@@ -1360,10 +1420,15 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>19,634</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED ENERO 2023.pdf</t>
         </is>
@@ -1432,10 +1497,15 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
+          <t>2,570</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED ENERO 2023.pdf</t>
         </is>
@@ -1504,10 +1574,15 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
+          <t>2,996</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED ENERO 2023.pdf</t>
         </is>
@@ -1576,10 +1651,15 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
+          <t>19,618</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED FEBRERO 2023.pdf</t>
         </is>
@@ -1648,10 +1728,15 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>19,937</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED FEBRERO 2023.pdf</t>
         </is>
@@ -1720,10 +1805,15 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>2,570</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED FEBRERO 2023.pdf</t>
         </is>
@@ -1792,10 +1882,15 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>2,581</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED FEBRERO 2023.pdf</t>
         </is>
@@ -1864,10 +1959,15 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>31,392</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED MARZO 2023.pdf</t>
         </is>
@@ -1936,10 +2036,15 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>21,876</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED MARZO 2023.pdf</t>
         </is>
@@ -2008,10 +2113,15 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>2,570</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED MARZO 2023.pdf</t>
         </is>
@@ -2080,10 +2190,15 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>2,581</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA CONMED MARZO 2023.pdf</t>
         </is>
@@ -2152,10 +2267,15 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
+          <t>68,785</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
@@ -2224,10 +2344,15 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
+          <t>48,385</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
@@ -2296,10 +2421,15 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>8,834</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
@@ -2368,10 +2498,15 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>38,952</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
@@ -2440,10 +2575,15 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>49,473</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
@@ -2512,10 +2652,15 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
+          <t>10,526</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
@@ -2584,10 +2729,15 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>10,277</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF ENERO 2023.pdf</t>
         </is>
@@ -2656,10 +2806,15 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>2,274</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF ENERO 2023.pdf</t>
         </is>
@@ -2728,10 +2883,15 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>6,766</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF ENERO 2023.pdf</t>
         </is>
@@ -2800,10 +2960,15 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
+          <t>7,999</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF ENERO 2023.pdf</t>
         </is>
@@ -2872,10 +3037,15 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF FEBRERO 2023.pdf</t>
         </is>
@@ -2944,10 +3114,15 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>3,359</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF FEBRERO 2023.pdf</t>
         </is>
@@ -3016,10 +3191,15 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>7,072</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF FEBRERO 2023.pdf</t>
         </is>
@@ -3088,10 +3268,15 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>4,627</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF FEBRERO 2023.pdf</t>
         </is>
@@ -3160,10 +3345,15 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF MARZO 2023 .pdf</t>
         </is>
@@ -3232,10 +3422,15 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
+          <t>3,940</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF MARZO 2023 .pdf</t>
         </is>
@@ -3304,10 +3499,15 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
+          <t>7,072</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF MARZO 2023 .pdf</t>
         </is>
@@ -3376,10 +3576,15 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>9,970</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA DSF MARZO 2023 .pdf</t>
         </is>
@@ -3448,10 +3653,15 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA FAST LINK ENERO 2023.pdf</t>
         </is>
@@ -3520,10 +3730,15 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA FAST LINK ENERO 2023.pdf</t>
         </is>
@@ -3592,10 +3807,15 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>13,341</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA FAST LINK ENERO 2023.pdf</t>
         </is>
@@ -3664,10 +3884,15 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA FAST LINK FEBRERO 2023.pdf</t>
         </is>
@@ -3736,10 +3961,15 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA FAST LINK FEBRERO 2023.pdf</t>
         </is>
@@ -3808,10 +4038,15 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
+          <t>16,535</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA FAST LINK FEBRERO 2023.pdf</t>
         </is>
@@ -3880,10 +4115,15 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
+          <t>51,366</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO ENERO 2023.pdf</t>
         </is>
@@ -3952,10 +4192,15 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
+          <t>19,012</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO ENERO 2023.pdf</t>
         </is>
@@ -4024,10 +4269,15 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
+          <t>2,234</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO ENERO 2023.pdf</t>
         </is>
@@ -4096,10 +4346,15 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
+          <t>7,239</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO ENERO 2023.pdf</t>
         </is>
@@ -4168,10 +4423,15 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
+          <t>83,857</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO FEBRERO 2023.pdf</t>
         </is>
@@ -4240,10 +4500,15 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>16,799</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO FEBRERO 2023.pdf</t>
         </is>
@@ -4312,10 +4577,15 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
+          <t>2,234</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO FEBRERO 2023.pdf</t>
         </is>
@@ -4384,10 +4654,15 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
+          <t>6,563</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO FEBRERO 2023.pdf</t>
         </is>
@@ -4456,10 +4731,15 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
+          <t>66,189</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO MARZO 2023.pdf</t>
         </is>
@@ -4528,10 +4808,15 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
+          <t>18,998</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO MARZO 2023.pdf</t>
         </is>
@@ -4600,10 +4885,15 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
+          <t>2,234</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO MARZO 2023.pdf</t>
         </is>
@@ -4672,10 +4962,15 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
+          <t>7,014</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MAKO MARZO 2023.pdf</t>
         </is>
@@ -4744,10 +5039,15 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MATRAZ ENERO 2023.pdf</t>
         </is>
@@ -4816,10 +5116,15 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
+          <t>2,591</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MATRAZ ENERO 2023.pdf</t>
         </is>
@@ -4888,10 +5193,15 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
+          <t>3,817</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MATRAZ ENERO 2023.pdf</t>
         </is>
@@ -4960,10 +5270,15 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MATRAZ FEBRERO 2023.pdf</t>
         </is>
@@ -5032,10 +5347,15 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
+          <t>2,629</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MATRAZ FEBRERO 2023.pdf</t>
         </is>
@@ -5104,10 +5424,15 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
+          <t>3,388</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA MATRAZ FEBRERO 2023.pdf</t>
         </is>
@@ -5176,10 +5501,15 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
+          <t>17,748</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P ENERO 2023.pdf</t>
         </is>
@@ -5248,10 +5578,15 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
+          <t>58,849</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P ENERO 2023.pdf</t>
         </is>
@@ -5320,10 +5655,15 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P ENERO 2023.pdf</t>
         </is>
@@ -5392,10 +5732,15 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
+          <t>2,373</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P ENERO 2023.pdf</t>
         </is>
@@ -5464,10 +5809,15 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
+          <t>30,287</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P FEBRERO 2023.pdf</t>
         </is>
@@ -5536,10 +5886,15 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
+          <t>61,907</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P FEBRERO 2023.pdf</t>
         </is>
@@ -5608,10 +5963,15 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
+          <t>7,833</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P FEBRERO 2023.pdf</t>
         </is>
@@ -5680,10 +6040,15 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
+          <t>2,213</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P FEBRERO 2023.pdf</t>
         </is>
@@ -5752,10 +6117,15 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
+          <t>27,862</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P MARZO 2023.pdf</t>
         </is>
@@ -5824,10 +6194,15 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
+          <t>85,916</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P MARZO 2023.pdf</t>
         </is>
@@ -5896,10 +6271,15 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>4,826</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P MARZO 2023.pdf</t>
         </is>
@@ -5968,10 +6348,15 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
+          <t>2,057</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA O AND P MARZO 2023.pdf</t>
         </is>
@@ -6040,10 +6425,15 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA OPERADORA COMERCIAL INTEGRAL ENERO 2023.pdf</t>
         </is>
@@ -6112,10 +6502,15 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
+          <t>49,006</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA OPERADORA COMERCIAL INTEGRAL ENERO 2023.pdf</t>
         </is>
@@ -6184,10 +6579,15 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
+          <t>1,960</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA OPERADORA COMERCIAL INTEGRAL ENERO 2023.pdf</t>
         </is>
@@ -6256,10 +6656,15 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA OPERADORA COMERCIAL INTEGRAL FEBRERO 2023.pdf</t>
         </is>
@@ -6328,10 +6733,15 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>50,588</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA OPERADORA COMERCIAL INTEGRAL FEBRERO 2023.pdf</t>
         </is>
@@ -6400,10 +6810,15 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA OPERADORA COMERCIAL INTEGRAL FEBRERO 2023.pdf</t>
         </is>
@@ -6472,10 +6887,15 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA OPERADORA COMERCIAL INTEGRAL MARZO 2023.pdf</t>
         </is>
@@ -6544,10 +6964,15 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
+          <t>50,042</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="O85" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA OPERADORA COMERCIAL INTEGRAL MARZO 2023.pdf</t>
         </is>
@@ -6616,10 +7041,15 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
+          <t>1,126</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr">
+      <c r="O86" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA OPERADORA COMERCIAL INTEGRAL MARZO 2023.pdf</t>
         </is>
@@ -6688,10 +7118,15 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
+          <t>1,073</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr">
+      <c r="O87" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA ENERO 2023.pdf</t>
         </is>
@@ -6760,10 +7195,15 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
+          <t>1,125</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N88" t="inlineStr">
+      <c r="O88" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA ENERO 2023.pdf</t>
         </is>
@@ -6832,10 +7272,15 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
+          <t>4,740</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N89" t="inlineStr">
+      <c r="O89" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA ENERO 2023.pdf</t>
         </is>
@@ -6904,10 +7349,15 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
+          <t>3,401</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr">
+      <c r="O90" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA ENERO 2023.pdf</t>
         </is>
@@ -6976,10 +7426,15 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
+          <t>2,328</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA FEBRERO 2023.pdf</t>
         </is>
@@ -7048,10 +7503,15 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
+          <t>1,291</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr">
+      <c r="O92" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA FEBRERO 2023.pdf</t>
         </is>
@@ -7120,10 +7580,15 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
+          <t>5,643</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA FEBRERO 2023.pdf</t>
         </is>
@@ -7192,10 +7657,15 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
+          <t>6,220</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N94" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA MARZO 2023.pdf</t>
         </is>
@@ -7264,10 +7734,15 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
+          <t>1,310</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr">
+      <c r="O95" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA MARZO 2023.pdf</t>
         </is>
@@ -7336,10 +7811,15 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
+          <t>4,740</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr">
+      <c r="O96" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA MARZO 2023.pdf</t>
         </is>
@@ -7408,10 +7888,15 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
+          <t>3,737</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N97" t="inlineStr">
+      <c r="O97" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA QUIMICA BENGALA MARZO 2023.pdf</t>
         </is>
@@ -7480,10 +7965,15 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr">
+      <c r="O98" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
@@ -7552,10 +8042,15 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
+          <t>12,424</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N99" t="inlineStr">
+      <c r="O99" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
@@ -7624,10 +8119,15 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr">
+      <c r="O100" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
@@ -7696,10 +8196,15 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N101" t="inlineStr">
+      <c r="O101" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
@@ -7768,10 +8273,15 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
+          <t>49,783</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N102" t="inlineStr">
+      <c r="O102" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
@@ -7840,10 +8350,15 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N103" t="inlineStr">
+      <c r="O103" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER FEBRERO 2023.pdf</t>
         </is>
@@ -7912,10 +8427,15 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
+          <t>11,846</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N104" t="inlineStr">
+      <c r="O104" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER FEBRERO 2023.pdf</t>
         </is>
@@ -7984,10 +8504,15 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N105" t="inlineStr">
+      <c r="O105" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER FEBRERO 2023.pdf</t>
         </is>
@@ -8056,10 +8581,15 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N106" t="inlineStr">
+      <c r="O106" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER FEBRERO 2023.pdf</t>
         </is>
@@ -8128,10 +8658,15 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
+          <t>4,968</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N107" t="inlineStr">
+      <c r="O107" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER FEBRERO 2023.pdf</t>
         </is>
@@ -8200,10 +8735,15 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N108" t="inlineStr">
+      <c r="O108" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER MARZO.pdf</t>
         </is>
@@ -8272,10 +8812,15 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
+          <t>13,912</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N109" t="inlineStr">
+      <c r="O109" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER MARZO.pdf</t>
         </is>
@@ -8344,10 +8889,15 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N110" t="inlineStr">
+      <c r="O110" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER MARZO.pdf</t>
         </is>
@@ -8416,10 +8966,15 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N111" t="inlineStr">
+      <c r="O111" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER MARZO.pdf</t>
         </is>
@@ -8488,10 +9043,15 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
+          <t>26,293</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N112" t="inlineStr">
+      <c r="O112" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR IVA ZAMSER MARZO.pdf</t>
         </is>
@@ -8560,10 +9120,15 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
+          <t>7,988</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N113" t="inlineStr">
+      <c r="O113" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR PM SEFRAPESTS ENERO 2023.pdf</t>
         </is>
@@ -8632,10 +9197,15 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
+          <t>4,749</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N114" t="inlineStr">
+      <c r="O114" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR PM SEFRAPESTS ENERO 2023.pdf</t>
         </is>
@@ -8704,10 +9274,15 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
+          <t>8,310</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N115" t="inlineStr">
+      <c r="O115" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR PM SEFRAPESTS FEBRERO 2023.pdf</t>
         </is>
@@ -8776,10 +9351,15 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
+          <t>5,372</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N116" t="inlineStr">
+      <c r="O116" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR PM SEFRAPESTS FEBRERO 2023.pdf</t>
         </is>
@@ -8848,10 +9428,15 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
+          <t>1,428</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N117" t="inlineStr">
+      <c r="O117" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR PM SEFRAPESTS FEBRERO 2023.pdf</t>
         </is>
@@ -8920,10 +9505,15 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
+          <t>2,330</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N118" t="inlineStr">
+      <c r="O118" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR PM SEFRAPESTS MARZO 2023.pdf</t>
         </is>
@@ -8992,10 +9582,15 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
+          <t>5,451</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N119" t="inlineStr">
+      <c r="O119" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR PM SEFRAPESTS MARZO 2023.pdf</t>
         </is>
@@ -9064,10 +9659,15 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
+          <t>3,084</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N120" t="inlineStr">
+      <c r="O120" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR PM SEFRAPESTS MARZO 2023.pdf</t>
         </is>
@@ -9134,12 +9734,13 @@
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N121" t="inlineStr">
+      <c r="O121" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET AGROL ENERO 2023.pdf</t>
         </is>
@@ -9206,12 +9807,13 @@
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N122" t="inlineStr">
+      <c r="O122" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET AGROL FEBRERO 2023.pdf</t>
         </is>
@@ -9280,10 +9882,15 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
+          <t>1,456</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N123" t="inlineStr">
+      <c r="O123" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CARLOS HERMOSILLO ENERO 2023.pdf</t>
         </is>
@@ -9352,10 +9959,15 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
+          <t>1,320</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N124" t="inlineStr">
+      <c r="O124" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CARLOS HERMOSILLO FEBERERO 2023.pdf</t>
         </is>
@@ -9424,10 +10036,15 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
+          <t>1,242</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N125" t="inlineStr">
+      <c r="O125" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CARLOS HERMOSILLO MARZO 2023.pdf</t>
         </is>
@@ -9496,10 +10113,15 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N126" t="inlineStr">
+      <c r="O126" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CONMED ENERO 2023.pdf</t>
         </is>
@@ -9568,10 +10190,15 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
+          <t>2,420</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N127" t="inlineStr">
+      <c r="O127" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CONMED ENERO 2023.pdf</t>
         </is>
@@ -9640,10 +10267,15 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
+          <t>23,109</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N128" t="inlineStr">
+      <c r="O128" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CONMED ENERO 2023.pdf</t>
         </is>
@@ -9712,10 +10344,15 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
+          <t>2,420</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N129" t="inlineStr">
+      <c r="O129" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CONMED FEBRERO 2023.pdf</t>
         </is>
@@ -9784,10 +10421,15 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
+          <t>34,190</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N130" t="inlineStr">
+      <c r="O130" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CONMED FEBRERO 2023.pdf</t>
         </is>
@@ -9856,10 +10498,15 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
+          <t>2,420</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N131" t="inlineStr">
+      <c r="O131" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CONMED MARZO 2023.pdf</t>
         </is>
@@ -9928,10 +10575,15 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
+          <t>62,366</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N132" t="inlineStr">
+      <c r="O132" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET CONMED MARZO 2023.pdf</t>
         </is>
@@ -10000,10 +10652,15 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
+          <t>16,275</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N133" t="inlineStr">
+      <c r="O133" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET DE SUELDOS RIGOBERTO MORA ENERO 2023.pdf</t>
         </is>
@@ -10072,10 +10729,15 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
+          <t>6,343</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N134" t="inlineStr">
+      <c r="O134" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET DSF ENERO 2023.pdf</t>
         </is>
@@ -10144,10 +10806,15 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
+          <t>6,630</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N135" t="inlineStr">
+      <c r="O135" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET DSF FEBRERO 2023.pdf</t>
         </is>
@@ -10216,10 +10883,15 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
+          <t>6,630</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N136" t="inlineStr">
+      <c r="O136" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET DSF MARZO2023.pdf</t>
         </is>
@@ -10288,10 +10960,15 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N137" t="inlineStr">
+      <c r="O137" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA BRICKS ENERO 2023.pdf</t>
         </is>
@@ -10360,10 +11037,15 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N138" t="inlineStr">
+      <c r="O138" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA BRICKS FEBRERO 2023.pdf</t>
         </is>
@@ -10430,12 +11112,13 @@
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N139" t="inlineStr">
+      <c r="O139" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA BRICKS FEBRERO 2023.pdf</t>
         </is>
@@ -10504,10 +11187,15 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N140" t="inlineStr">
+      <c r="O140" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
@@ -10576,10 +11264,15 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
+          <t>2,937</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N141" t="inlineStr">
+      <c r="O141" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
@@ -10648,10 +11341,15 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
+          <t>92,692</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N142" t="inlineStr">
+      <c r="O142" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
@@ -10720,10 +11418,15 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
+          <t>3,039</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N143" t="inlineStr">
+      <c r="O143" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
@@ -10792,10 +11495,15 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
+          <t>2,937</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N144" t="inlineStr">
+      <c r="O144" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
@@ -10864,10 +11572,15 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
+          <t>92,303</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N145" t="inlineStr">
+      <c r="O145" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
@@ -10936,10 +11649,15 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N146" t="inlineStr">
+      <c r="O146" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA OPERADORA COMERCIAL INTEGRAL FEBRERO 2023.pdf</t>
         </is>
@@ -11008,10 +11726,15 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
+          <t>20,686</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N147" t="inlineStr">
+      <c r="O147" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA OPERADORA COMERCIAL INTEGRAL FEBRERO 2023.pdf</t>
         </is>
@@ -11080,10 +11803,15 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N148" t="inlineStr">
+      <c r="O148" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA OPERADORA COMERCIAL INTEGRAL MARZO 2023.pdf</t>
         </is>
@@ -11152,10 +11880,15 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
+          <t>21,472</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N149" t="inlineStr">
+      <c r="O149" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET IVA OPERADORA COMERCIAL INTEGRAL MARZO 2023.pdf</t>
         </is>
@@ -11224,10 +11957,15 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N150" t="inlineStr">
+      <c r="O150" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET MARISELA ENERO 2023.pdf</t>
         </is>
@@ -11296,10 +12034,15 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N151" t="inlineStr">
+      <c r="O151" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET MARISELA LARES FEBRERO 2023.pdf</t>
         </is>
@@ -11368,10 +12111,15 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N152" t="inlineStr">
+      <c r="O152" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET O AND P ENERO 2023.pdf</t>
         </is>
@@ -11440,10 +12188,15 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N153" t="inlineStr">
+      <c r="O153" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET O AND P ENERO 2023.pdf</t>
         </is>
@@ -11512,10 +12265,15 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N154" t="inlineStr">
+      <c r="O154" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET O AND P FEBRERO 2023.pdf</t>
         </is>
@@ -11584,10 +12342,15 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
+          <t>1,600</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N155" t="inlineStr">
+      <c r="O155" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET O AND P FEBRERO 2023.pdf</t>
         </is>
@@ -11656,10 +12419,15 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
+          <t>10,227</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N156" t="inlineStr">
+      <c r="O156" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET O AND P FEBRERO 2023.pdf</t>
         </is>
@@ -11728,10 +12496,15 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N157" t="inlineStr">
+      <c r="O157" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET O AND P MARZO 2023.pdf</t>
         </is>
@@ -11800,10 +12573,15 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
+          <t>1,624</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N158" t="inlineStr">
+      <c r="O158" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET O AND P MARZO 2023.pdf</t>
         </is>
@@ -11872,10 +12650,15 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N159" t="inlineStr">
+      <c r="O159" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET OPERADORA COMERCIAL INTEGRAL ENERO 2023.pdf</t>
         </is>
@@ -11942,12 +12725,13 @@
           <t>ISR POR PAGOS POR CUENTA DE TERCEROS O RETENCIONES POR ARRENDAMIENTO DE INMUEBLES</t>
         </is>
       </c>
-      <c r="M160" t="inlineStr">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N160" t="inlineStr">
+      <c r="O160" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET QUIMICA BENGALA ENERO 2023.pdf</t>
         </is>
@@ -12016,10 +12800,15 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N161" t="inlineStr">
+      <c r="O161" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET QUIMICA BENGALA FEBRERO 2023.pdf</t>
         </is>
@@ -12088,10 +12877,15 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
+          <t>3,333</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N162" t="inlineStr">
+      <c r="O162" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET QUIMICA BENGALA FEBRERO 2023.pdf</t>
         </is>
@@ -12160,10 +12954,15 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N163" t="inlineStr">
+      <c r="O163" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET QUIMICA BENGALA MARZO 2023.pdf</t>
         </is>
@@ -12232,10 +13031,15 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
+          <t>2,574</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N164" t="inlineStr">
+      <c r="O164" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET QUIMICA BENGALA MARZO 2023.pdf</t>
         </is>
@@ -12304,10 +13108,15 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
+          <t>5,683</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N165" t="inlineStr">
+      <c r="O165" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SALARIOS SEBASTIAN DUARTE FEBRERO 2023.pdf</t>
         </is>
@@ -12381,6 +13190,11 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SEFRAPESTS ENERO 2023.pdf</t>
         </is>
       </c>
@@ -12448,10 +13262,15 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
+          <t>1,366</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N167" t="inlineStr">
+      <c r="O167" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SEFRAPESTS FEBRERO 2023.pdf</t>
         </is>
@@ -12520,10 +13339,15 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
+          <t>3,058</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N168" t="inlineStr">
+      <c r="O168" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SEFRAPESTS FEBRERO 2023.pdf</t>
         </is>
@@ -12592,10 +13416,15 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
+          <t>2,287</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N169" t="inlineStr">
+      <c r="O169" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SEFRAPESTS MARZO 2023.pdf</t>
         </is>
@@ -12664,10 +13493,15 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
+          <t>1,053</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N170" t="inlineStr">
+      <c r="O170" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SUELDOS AGROL ENERO 2023.pdf</t>
         </is>
@@ -12736,10 +13570,15 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
+          <t>2,081</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N171" t="inlineStr">
+      <c r="O171" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SUELDOS AGROL FEBRERO 2023.pdf</t>
         </is>
@@ -12808,10 +13647,15 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N172" t="inlineStr">
+      <c r="O172" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SUELDOS AGROL FEBRERO 2023.pdf</t>
         </is>
@@ -12880,10 +13724,15 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
+          <t>13,478</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N173" t="inlineStr">
+      <c r="O173" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SUELDOS BRICKS MARZO 2023.pdf</t>
         </is>
@@ -12952,10 +13801,15 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N174" t="inlineStr">
+      <c r="O174" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET SUELDOS BRICKS MARZO 2023.pdf</t>
         </is>
@@ -13024,10 +13878,15 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N175" t="inlineStr">
+      <c r="O175" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET ZAMSER FEBRERO 2023.pdf</t>
         </is>
@@ -13096,10 +13955,15 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N176" t="inlineStr">
+      <c r="O176" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RET ZAMSER MARZO 2023.pdf</t>
         </is>
@@ -13168,10 +14032,15 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
+          <t>6,939</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N177" t="inlineStr">
+      <c r="O177" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR RIGOBERTO MORA ENERO 2023.pdf</t>
         </is>
@@ -13240,10 +14109,15 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
+          <t>2,273</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N178" t="inlineStr">
+      <c r="O178" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR ULISES DE DIOS ENERO 2023.pdf</t>
         </is>
@@ -13312,10 +14186,15 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N179" t="inlineStr">
+      <c r="O179" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR ULISES DE DIOS FEBERERO 2023.pdf</t>
         </is>
@@ -13384,10 +14263,15 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
+          <t>5,452</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N180" t="inlineStr">
+      <c r="O180" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO ISR ULISES DE DIOS MARZO 2023.pdf</t>
         </is>
@@ -13454,12 +14338,13 @@
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M181" t="inlineStr">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N181" t="inlineStr">
+      <c r="O181" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO IVA CARLOS HERMOSILLO ENERO 2023.pdf</t>
         </is>
@@ -13526,12 +14411,13 @@
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M182" t="inlineStr">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N182" t="inlineStr">
+      <c r="O182" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO IVA CARLOS HERMOSILLO FEBRERO 2023.pdf</t>
         </is>
@@ -13598,12 +14484,13 @@
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M183" t="inlineStr">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N183" t="inlineStr">
+      <c r="O183" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PAGO IVA CARLOS HERMOSILLO MARZO 2023.pdf</t>
         </is>

--- a/Script/Dataframes/df_Pagos.xlsx
+++ b/Script/Dataframes/df_Pagos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
